--- a/notebook/供应商联盟系统代码手册.xlsx
+++ b/notebook/供应商联盟系统代码手册.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>供应商联盟系统代码清单</t>
   </si>
@@ -144,6 +144,27 @@
   </si>
   <si>
     <t>191203goodshop@goodshop</t>
+  </si>
+  <si>
+    <t>阿里云RAM账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户登录名称 </t>
+  </si>
+  <si>
+    <t>goodshop@1719504597091034.onaliyun.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccessKey ID </t>
+  </si>
+  <si>
+    <t>LTAI4FkCSGwQHirzGvdvWqiG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccessKeySecret </t>
+  </si>
+  <si>
+    <t>ACpMHxZXPkkl23ont4mQfzjCZKtL3L</t>
   </si>
 </sst>
 </file>
@@ -386,6 +407,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +461,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,6 +509,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,30 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,16 +1534,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -1563,9 +1584,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
